--- a/PPA_RA_Tests/Rapid_Ag_PPA.xlsx
+++ b/PPA_RA_Tests/Rapid_Ag_PPA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Onshore-Offshore Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\Comparative RA test and RT-PCR\PPA_RA_Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852EF298-D285-45AC-B656-9DF4434C7B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326F3196-9013-4728-A8ED-E0C2C2E351F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24525" yWindow="4995" windowWidth="7500" windowHeight="6000" xr2:uid="{10A58DBD-3D38-4904-9B22-C7C1BCDFFF26}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="7500" windowHeight="6000" xr2:uid="{10A58DBD-3D38-4904-9B22-C7C1BCDFFF26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -247,15 +247,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -265,6 +256,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -272,6 +269,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CB7948-BB96-4D05-9C81-6D3ABD66D019}">
   <dimension ref="A1:BU34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BJ28" sqref="BJ28:BL34"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,126 +604,126 @@
   <sheetData>
     <row r="1" spans="1:73" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="4" t="s">
+      <c r="I1" s="12"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="12"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="4" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="4" t="s">
+      <c r="R1" s="12"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="4" t="s">
+      <c r="U1" s="12"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="4" t="s">
+      <c r="X1" s="12"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="4" t="s">
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="4" t="s">
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="6"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="8"/>
       <c r="AR1" s="1"/>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="4" t="s">
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="4" t="s">
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="BB1" s="5"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="4" t="s">
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="BE1" s="5"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="4" t="s">
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="BH1" s="5"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="4" t="s">
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="BK1" s="5"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="4" t="s">
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BN1" s="5"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="7" t="s">
+      <c r="BN1" s="12"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
-      <c r="BS1" s="9" t="s">
+      <c r="BQ1" s="5"/>
+      <c r="BR1" s="5"/>
+      <c r="BS1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BT1" s="9"/>
-      <c r="BU1" s="9"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
     </row>
     <row r="2" spans="1:73" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -4603,6 +4603,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="BM1:BO1"/>
+    <mergeCell ref="AU1:AW1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BJ1:BL1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BD1:BF1"/>
     <mergeCell ref="BP1:BR1"/>
     <mergeCell ref="BS1:BU1"/>
     <mergeCell ref="AS1:AT1"/>
@@ -4619,14 +4627,6 @@
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="BM1:BO1"/>
-    <mergeCell ref="AU1:AW1"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BJ1:BL1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BD1:BF1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H1" r:id="rId1" display="https://jcm.asm.org/content/jcm/early/2020/10/05/JCM.02338-20.full.pdf" xr:uid="{2C5B4309-0A52-4A5A-A831-237BC01C22BA}"/>
